--- a/Code/Results/Cases/Case_0_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03002913532162665</v>
+        <v>0.0101971532915357</v>
       </c>
       <c r="D2">
-        <v>0.01128278417605344</v>
+        <v>0.003626923131477611</v>
       </c>
       <c r="E2">
-        <v>0.003082289652297732</v>
+        <v>0.05289587296702258</v>
       </c>
       <c r="F2">
-        <v>0.7945513135400972</v>
+        <v>0.4411102620360623</v>
       </c>
       <c r="G2">
-        <v>0.7416515081582986</v>
+        <v>0.3200767524363641</v>
       </c>
       <c r="H2">
-        <v>0.3853032268993104</v>
+        <v>0.3880983609024327</v>
       </c>
       <c r="I2">
-        <v>0.5808204031730355</v>
+        <v>0.321948227514099</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.49321205222499</v>
+        <v>0.8391109518968847</v>
       </c>
       <c r="N2">
-        <v>4.205164813555342</v>
+        <v>1.806390725800441</v>
       </c>
       <c r="O2">
-        <v>2.333083120126361</v>
+        <v>1.343800827141138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02606027228931396</v>
+        <v>0.009034222291994354</v>
       </c>
       <c r="D3">
-        <v>0.00982657365098305</v>
+        <v>0.003166069604656485</v>
       </c>
       <c r="E3">
-        <v>0.004901894349786051</v>
+        <v>0.05639259184957734</v>
       </c>
       <c r="F3">
-        <v>0.692414720595437</v>
+        <v>0.4172000692780244</v>
       </c>
       <c r="G3">
-        <v>0.6420999380069503</v>
+        <v>0.2955380779540917</v>
       </c>
       <c r="H3">
-        <v>0.3435340251532608</v>
+        <v>0.3805128844400656</v>
       </c>
       <c r="I3">
-        <v>0.5060583451221987</v>
+        <v>0.3045092174425434</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.169408040324399</v>
+        <v>0.7373166087641039</v>
       </c>
       <c r="N3">
-        <v>3.739340383941936</v>
+        <v>1.651773543296031</v>
       </c>
       <c r="O3">
-        <v>2.034208965850581</v>
+        <v>1.275564322475958</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02363333176565874</v>
+        <v>0.008321623378478193</v>
       </c>
       <c r="D4">
-        <v>0.008930885181932524</v>
+        <v>0.002882488985356702</v>
       </c>
       <c r="E4">
-        <v>0.006573239151609123</v>
+        <v>0.05870294115950392</v>
       </c>
       <c r="F4">
-        <v>0.6307768652703913</v>
+        <v>0.4028256908167691</v>
       </c>
       <c r="G4">
-        <v>0.5819823493350071</v>
+        <v>0.2806897144269414</v>
       </c>
       <c r="H4">
-        <v>0.3185038396156301</v>
+        <v>0.3761042544726649</v>
       </c>
       <c r="I4">
-        <v>0.4609554014750827</v>
+        <v>0.2940277215863034</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.970712252779819</v>
+        <v>0.6746455644434803</v>
       </c>
       <c r="N4">
-        <v>3.453781015430252</v>
+        <v>1.556971036514909</v>
       </c>
       <c r="O4">
-        <v>1.854112364924305</v>
+        <v>1.23463823052407</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02264642493449998</v>
+        <v>0.008031608154425385</v>
       </c>
       <c r="D5">
-        <v>0.008565458683978733</v>
+        <v>0.002766783468775458</v>
       </c>
       <c r="E5">
-        <v>0.007382251624399316</v>
+        <v>0.05968510855047571</v>
       </c>
       <c r="F5">
-        <v>0.6059007990882463</v>
+        <v>0.3970448364041914</v>
       </c>
       <c r="G5">
-        <v>0.5577083174283928</v>
+        <v>0.2746934401400267</v>
       </c>
       <c r="H5">
-        <v>0.3084454746667404</v>
+        <v>0.3743702073086581</v>
       </c>
       <c r="I5">
-        <v>0.4427559047422136</v>
+        <v>0.2898130748586638</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.889746972305701</v>
+        <v>0.6490658801042599</v>
       </c>
       <c r="N5">
-        <v>3.337512251452097</v>
+        <v>1.518376361941876</v>
       </c>
       <c r="O5">
-        <v>1.781490525135837</v>
+        <v>1.218203792951044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02248266444902924</v>
+        <v>0.007983474301582305</v>
       </c>
       <c r="D6">
-        <v>0.008504753306212365</v>
+        <v>0.002747562260218217</v>
       </c>
       <c r="E6">
-        <v>0.007523994727227645</v>
+        <v>0.05985064221806446</v>
       </c>
       <c r="F6">
-        <v>0.6017839579565702</v>
+        <v>0.3960895619008653</v>
       </c>
       <c r="G6">
-        <v>0.5536903694510897</v>
+        <v>0.27370104707785</v>
       </c>
       <c r="H6">
-        <v>0.3067834704870478</v>
+        <v>0.3740860429972912</v>
       </c>
       <c r="I6">
-        <v>0.4397441872611267</v>
+        <v>0.2891166511493779</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.876302336648095</v>
+        <v>0.6448159850434223</v>
       </c>
       <c r="N6">
-        <v>3.318211451835339</v>
+        <v>1.511970185676631</v>
       </c>
       <c r="O6">
-        <v>1.769475655429687</v>
+        <v>1.215489531610558</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0236200140582099</v>
+        <v>0.008317710599740735</v>
       </c>
       <c r="D7">
-        <v>0.008925958676993417</v>
+        <v>0.002880929109828401</v>
       </c>
       <c r="E7">
-        <v>0.006583646334673343</v>
+        <v>0.05871602281820243</v>
       </c>
       <c r="F7">
-        <v>0.6304404349041306</v>
+        <v>0.4027474175036474</v>
       </c>
       <c r="G7">
-        <v>0.581654109838837</v>
+        <v>0.2806086261962832</v>
       </c>
       <c r="H7">
-        <v>0.3183676325500073</v>
+        <v>0.3760806155301566</v>
       </c>
       <c r="I7">
-        <v>0.4607092536834543</v>
+        <v>0.2939706523049423</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.969620339240805</v>
+        <v>0.6743007504402954</v>
       </c>
       <c r="N7">
-        <v>3.452212593541219</v>
+        <v>1.556450374696055</v>
       </c>
       <c r="O7">
-        <v>1.85312996209808</v>
+        <v>1.23441560624596</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02865834844962478</v>
+        <v>0.009795881040652432</v>
       </c>
       <c r="D8">
-        <v>0.01078098783207437</v>
+        <v>0.003468154548283309</v>
       </c>
       <c r="E8">
-        <v>0.003587579488555814</v>
+        <v>0.05406740150849587</v>
       </c>
       <c r="F8">
-        <v>0.7590940389939362</v>
+        <v>0.43280222718505</v>
       </c>
       <c r="G8">
-        <v>0.7070990352695077</v>
+        <v>0.3115702324801504</v>
       </c>
       <c r="H8">
-        <v>0.3707650200885979</v>
+        <v>0.3854311821854992</v>
       </c>
       <c r="I8">
-        <v>0.5548630003647972</v>
+        <v>0.315888189793526</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.38152307202219</v>
+        <v>0.8040483323266301</v>
       </c>
       <c r="N8">
-        <v>4.04444273712636</v>
+        <v>1.753053829675565</v>
       </c>
       <c r="O8">
-        <v>2.229267394521514</v>
+        <v>1.320070648128478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03863768145198065</v>
+        <v>0.0127056890284436</v>
       </c>
       <c r="D9">
-        <v>0.01440806287362761</v>
+        <v>0.004614418142605103</v>
       </c>
       <c r="E9">
-        <v>0.002664394507977619</v>
+        <v>0.04626510282778673</v>
       </c>
       <c r="F9">
-        <v>1.021282242811793</v>
+        <v>0.4941878322768503</v>
       </c>
       <c r="G9">
-        <v>0.962495867641195</v>
+        <v>0.3740400185152168</v>
       </c>
       <c r="H9">
-        <v>0.4790529712220035</v>
+        <v>0.4057474478859717</v>
       </c>
       <c r="I9">
-        <v>0.7468829753920048</v>
+        <v>0.3606748108487778</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.191538299308476</v>
+        <v>1.05707856001996</v>
       </c>
       <c r="N9">
-        <v>5.210345299389701</v>
+        <v>2.139465154819618</v>
       </c>
       <c r="O9">
-        <v>2.998290655195348</v>
+        <v>1.495802234160237</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04606038845437155</v>
+        <v>0.01485004507391352</v>
       </c>
       <c r="D10">
-        <v>0.01706955136666721</v>
+        <v>0.005452888770324904</v>
       </c>
       <c r="E10">
-        <v>0.005847265272008073</v>
+        <v>0.04135746289745112</v>
       </c>
       <c r="F10">
-        <v>1.222013268924982</v>
+        <v>0.540807067454125</v>
       </c>
       <c r="G10">
-        <v>1.157982304844523</v>
+        <v>0.4210391953494366</v>
       </c>
       <c r="H10">
-        <v>0.5629615477785705</v>
+        <v>0.4218899593114145</v>
       </c>
       <c r="I10">
-        <v>0.8940075295926988</v>
+        <v>0.3947013060638369</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.790124030967448</v>
+        <v>1.242056010451932</v>
       </c>
       <c r="N10">
-        <v>6.071199106218103</v>
+        <v>2.423678289929512</v>
       </c>
       <c r="O10">
-        <v>3.58897214480811</v>
+        <v>1.629734618383566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04946419195204044</v>
+        <v>0.01582694034210164</v>
       </c>
       <c r="D11">
-        <v>0.01828044222265746</v>
+        <v>0.005833434950787364</v>
       </c>
       <c r="E11">
-        <v>0.008342762581475149</v>
+        <v>0.03930907181283283</v>
       </c>
       <c r="F11">
-        <v>1.315592128052515</v>
+        <v>0.5623512875463348</v>
       </c>
       <c r="G11">
-        <v>1.249132655921841</v>
+        <v>0.4426671690091553</v>
       </c>
       <c r="H11">
-        <v>0.6023152042994298</v>
+        <v>0.4294997986830253</v>
       </c>
       <c r="I11">
-        <v>0.962627051296792</v>
+        <v>0.4104290466843992</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.06371531700384</v>
+        <v>1.325993434783641</v>
       </c>
       <c r="N11">
-        <v>6.464131936692752</v>
+        <v>2.553000083283166</v>
       </c>
       <c r="O11">
-        <v>3.864852389286909</v>
+        <v>1.691731319612359</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05075767170257706</v>
+        <v>0.01619706012970568</v>
       </c>
       <c r="D12">
-        <v>0.01873907297107991</v>
+        <v>0.005977401857197862</v>
       </c>
       <c r="E12">
-        <v>0.009457948646514502</v>
+        <v>0.03856030642766139</v>
       </c>
       <c r="F12">
-        <v>1.351399303631737</v>
+        <v>0.570558341765377</v>
       </c>
       <c r="G12">
-        <v>1.284015330536448</v>
+        <v>0.4508932444487925</v>
       </c>
       <c r="H12">
-        <v>0.6174091232254852</v>
+        <v>0.4324198992350716</v>
       </c>
       <c r="I12">
-        <v>0.9888888664309547</v>
+        <v>0.4164208175271114</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.167551107431848</v>
+        <v>1.357746718811839</v>
       </c>
       <c r="N12">
-        <v>6.613149674115391</v>
+        <v>2.601971329837852</v>
       </c>
       <c r="O12">
-        <v>3.970497392972391</v>
+        <v>1.715363059083643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05047888561675506</v>
+        <v>0.01611733993573949</v>
       </c>
       <c r="D13">
-        <v>0.01864029331183659</v>
+        <v>0.005946402311831633</v>
       </c>
       <c r="E13">
-        <v>0.009209870880519944</v>
+        <v>0.0387203623341601</v>
       </c>
       <c r="F13">
-        <v>1.343670331022921</v>
+        <v>0.568788634254588</v>
       </c>
       <c r="G13">
-        <v>1.276485660782328</v>
+        <v>0.4491200031250457</v>
       </c>
       <c r="H13">
-        <v>0.6141494977232185</v>
+        <v>0.4317892931329652</v>
       </c>
       <c r="I13">
-        <v>0.983220020765188</v>
+        <v>0.4151287770704499</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.145177058492393</v>
+        <v>1.350909533074955</v>
       </c>
       <c r="N13">
-        <v>6.581045594412842</v>
+        <v>2.591424574538905</v>
       </c>
       <c r="O13">
-        <v>3.947690170161138</v>
+        <v>1.710266633836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04957051270758939</v>
+        <v>0.01585738657174574</v>
       </c>
       <c r="D14">
-        <v>0.01831817176434924</v>
+        <v>0.005845282019482312</v>
       </c>
       <c r="E14">
-        <v>0.008430979455074983</v>
+        <v>0.03924692847323863</v>
       </c>
       <c r="F14">
-        <v>1.318530300075452</v>
+        <v>0.5630255086991838</v>
       </c>
       <c r="G14">
-        <v>1.251994858619668</v>
+        <v>0.4433432088022471</v>
       </c>
       <c r="H14">
-        <v>0.6035530219642453</v>
+        <v>0.4297392665960444</v>
       </c>
       <c r="I14">
-        <v>0.9647818690848879</v>
+        <v>0.4109212701731906</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.072252998548024</v>
+        <v>1.3286064482905</v>
       </c>
       <c r="N14">
-        <v>6.476387059844512</v>
+        <v>2.557029006038022</v>
       </c>
       <c r="O14">
-        <v>3.873519450305253</v>
+        <v>1.693672405963525</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04901471779069055</v>
+        <v>0.01569818208430718</v>
       </c>
       <c r="D15">
-        <v>0.01812087728993816</v>
+        <v>0.005783324653233279</v>
       </c>
       <c r="E15">
-        <v>0.007976665006169448</v>
+        <v>0.03957298376665097</v>
       </c>
       <c r="F15">
-        <v>1.303181013172676</v>
+        <v>0.5595017817120151</v>
       </c>
       <c r="G15">
-        <v>1.237042648199832</v>
+        <v>0.4398094595427438</v>
       </c>
       <c r="H15">
-        <v>0.5970879864538574</v>
+        <v>0.428488572265735</v>
       </c>
       <c r="I15">
-        <v>0.9535251080952492</v>
+        <v>0.4083487477630712</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.027616694210181</v>
+        <v>1.314940943742471</v>
       </c>
       <c r="N15">
-        <v>6.412310678004985</v>
+        <v>2.535960574832643</v>
       </c>
       <c r="O15">
-        <v>3.828245246469407</v>
+        <v>1.683528170163413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04583854115084307</v>
+        <v>0.01478623007326263</v>
       </c>
       <c r="D16">
-        <v>0.01699042580620613</v>
+        <v>0.00542800053651149</v>
       </c>
       <c r="E16">
-        <v>0.005706885441920662</v>
+        <v>0.04149507256093976</v>
       </c>
       <c r="F16">
-        <v>1.215947025302256</v>
+        <v>0.5394059052049442</v>
       </c>
       <c r="G16">
-        <v>1.152074014851053</v>
+        <v>0.4196307769062457</v>
       </c>
       <c r="H16">
-        <v>0.5604152900572217</v>
+        <v>0.4213980096074863</v>
       </c>
       <c r="I16">
-        <v>0.8895599502523766</v>
+        <v>0.393678489137784</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.772274087168825</v>
+        <v>1.236566124437871</v>
       </c>
       <c r="N16">
-        <v>6.045549359895062</v>
+        <v>2.415227044953269</v>
       </c>
       <c r="O16">
-        <v>3.571099085692197</v>
+        <v>1.625704612226286</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04389745070794504</v>
+        <v>0.01422713074018844</v>
       </c>
       <c r="D17">
-        <v>0.01629701896888491</v>
+        <v>0.005209787647054043</v>
       </c>
       <c r="E17">
-        <v>0.004596062059325945</v>
+        <v>0.04272168129706655</v>
       </c>
       <c r="F17">
-        <v>1.163042916829298</v>
+        <v>0.5271642228601365</v>
       </c>
       <c r="G17">
-        <v>1.100549537509522</v>
+        <v>0.4073155615326414</v>
       </c>
       <c r="H17">
-        <v>0.5382354765864363</v>
+        <v>0.4171165097942975</v>
       </c>
       <c r="I17">
-        <v>0.8507758653400757</v>
+        <v>0.3847426730520738</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.615992319674703</v>
+        <v>1.188430678893397</v>
       </c>
       <c r="N17">
-        <v>5.820914502630899</v>
+        <v>2.34116573104825</v>
       </c>
       <c r="O17">
-        <v>3.415284285207292</v>
+        <v>1.590506575440088</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04278350474088199</v>
+        <v>0.01390568574429096</v>
       </c>
       <c r="D18">
-        <v>0.0158982006966788</v>
+        <v>0.005084195372841549</v>
       </c>
       <c r="E18">
-        <v>0.004054468183240623</v>
+        <v>0.04344449791859528</v>
       </c>
       <c r="F18">
-        <v>1.132824171628187</v>
+        <v>0.5201548245143215</v>
       </c>
       <c r="G18">
-        <v>1.071120214106557</v>
+        <v>0.4002554770368079</v>
       </c>
       <c r="H18">
-        <v>0.5255882183333966</v>
+        <v>0.4146789858317277</v>
       </c>
       <c r="I18">
-        <v>0.8286253382958506</v>
+        <v>0.3796264439733363</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.526221651337281</v>
+        <v>1.160724810156836</v>
       </c>
       <c r="N18">
-        <v>5.691833191166893</v>
+        <v>2.298570892747136</v>
       </c>
       <c r="O18">
-        <v>3.326329917178043</v>
+        <v>1.57036226455898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04240675593013066</v>
+        <v>0.01379687342704727</v>
       </c>
       <c r="D19">
-        <v>0.01576316763261332</v>
+        <v>0.005041658250352299</v>
       </c>
       <c r="E19">
-        <v>0.003887245067236478</v>
+        <v>0.04369218977357159</v>
       </c>
       <c r="F19">
-        <v>1.122627429627045</v>
+        <v>0.5177869975149321</v>
       </c>
       <c r="G19">
-        <v>1.061190015653835</v>
+        <v>0.3978690437335501</v>
       </c>
       <c r="H19">
-        <v>0.5213243418793212</v>
+        <v>0.4138579870474928</v>
       </c>
       <c r="I19">
-        <v>0.8211515411982262</v>
+        <v>0.3778981916374136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.495845844190313</v>
+        <v>1.151340763179277</v>
       </c>
       <c r="N19">
-        <v>5.648148634458039</v>
+        <v>2.284149717821265</v>
       </c>
       <c r="O19">
-        <v>3.296321751615778</v>
+        <v>1.563559005219446</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04410381812311215</v>
+        <v>0.01428663402874264</v>
       </c>
       <c r="D20">
-        <v>0.01637083170433229</v>
+        <v>0.005233025350371179</v>
       </c>
       <c r="E20">
-        <v>0.004704103257718195</v>
+        <v>0.04258931265320731</v>
       </c>
       <c r="F20">
-        <v>1.168652569658917</v>
+        <v>0.5284640886451513</v>
       </c>
       <c r="G20">
-        <v>1.106012742501264</v>
+        <v>0.4086241227267777</v>
       </c>
       <c r="H20">
-        <v>0.5405850236079743</v>
+        <v>0.4175696862448177</v>
       </c>
       <c r="I20">
-        <v>0.8548880073684373</v>
+        <v>0.3856914808457432</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.632616195320523</v>
+        <v>1.193556824602581</v>
       </c>
       <c r="N20">
-        <v>5.844814345138673</v>
+        <v>2.349049379965891</v>
       </c>
       <c r="O20">
-        <v>3.431801091409795</v>
+        <v>1.594243040128219</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04983719560246413</v>
+        <v>0.01593373610271698</v>
       </c>
       <c r="D21">
-        <v>0.01841278355951559</v>
+        <v>0.005874987327640468</v>
       </c>
       <c r="E21">
-        <v>0.008654973841045965</v>
+        <v>0.03909152922949533</v>
       </c>
       <c r="F21">
-        <v>1.325904091291235</v>
+        <v>0.564716953745048</v>
       </c>
       <c r="G21">
-        <v>1.259178077086005</v>
+        <v>0.4450390122981958</v>
       </c>
       <c r="H21">
-        <v>0.606660085380895</v>
+        <v>0.4303403656464582</v>
       </c>
       <c r="I21">
-        <v>0.9701897968185591</v>
+        <v>0.4121561376818477</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.093665846799524</v>
+        <v>1.335158287857965</v>
       </c>
       <c r="N21">
-        <v>6.507121496372633</v>
+        <v>2.567131858293749</v>
       </c>
       <c r="O21">
-        <v>3.895272091387199</v>
+        <v>1.698542319768933</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0536110371988201</v>
+        <v>0.01701131827241653</v>
       </c>
       <c r="D22">
-        <v>0.0197478964638016</v>
+        <v>0.006293738854363795</v>
       </c>
       <c r="E22">
-        <v>0.01223969815373671</v>
+        <v>0.03696261744795981</v>
       </c>
       <c r="F22">
-        <v>1.430862760004814</v>
+        <v>0.5886944366025659</v>
       </c>
       <c r="G22">
-        <v>1.361438464973958</v>
+        <v>0.4690484482617876</v>
       </c>
       <c r="H22">
-        <v>0.6509717506545769</v>
+        <v>0.438910724612839</v>
       </c>
       <c r="I22">
-        <v>1.047179165060399</v>
+        <v>0.4296623572907095</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.396370498285208</v>
+        <v>1.427515687671374</v>
       </c>
       <c r="N22">
-        <v>6.9412922082347</v>
+        <v>2.709658591458378</v>
       </c>
       <c r="O22">
-        <v>4.205102640137113</v>
+        <v>1.767611486227111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05159420039010598</v>
+        <v>0.01643609553017455</v>
       </c>
       <c r="D23">
-        <v>0.01903524322880656</v>
+        <v>0.006070320946072627</v>
       </c>
       <c r="E23">
-        <v>0.01022772600865451</v>
+        <v>0.03808433794246957</v>
       </c>
       <c r="F23">
-        <v>1.374628385805423</v>
+        <v>0.5758711115273059</v>
       </c>
       <c r="G23">
-        <v>1.306646288651933</v>
+        <v>0.4562147964454084</v>
       </c>
       <c r="H23">
-        <v>0.6272110133006663</v>
+        <v>0.4343160376557194</v>
       </c>
       <c r="I23">
-        <v>1.005927112049037</v>
+        <v>0.4202996666003571</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.234667964208612</v>
+        <v>1.378240549150718</v>
       </c>
       <c r="N23">
-        <v>6.709435421667536</v>
+        <v>2.63359117803833</v>
       </c>
       <c r="O23">
-        <v>4.039055876020825</v>
+        <v>1.730664952567622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04401051319217686</v>
+        <v>0.01425973262623614</v>
       </c>
       <c r="D24">
-        <v>0.01633746149947868</v>
+        <v>0.005222520015312426</v>
       </c>
       <c r="E24">
-        <v>0.004654957048180641</v>
+        <v>0.04264910165441194</v>
       </c>
       <c r="F24">
-        <v>1.166115836828027</v>
+        <v>0.5278763305445722</v>
       </c>
       <c r="G24">
-        <v>1.103542230500992</v>
+        <v>0.4080324596424418</v>
       </c>
       <c r="H24">
-        <v>0.5395224703970314</v>
+        <v>0.4173647305186563</v>
       </c>
       <c r="I24">
-        <v>0.8530284527298093</v>
+        <v>0.3852624591631866</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.625100302291528</v>
+        <v>1.191239394168647</v>
       </c>
       <c r="N24">
-        <v>5.834009028555499</v>
+        <v>2.345485231772273</v>
       </c>
       <c r="O24">
-        <v>3.42433190528044</v>
+        <v>1.592553499473468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03592436825230294</v>
+        <v>0.0119173448579204</v>
       </c>
       <c r="D25">
-        <v>0.01342767796375455</v>
+        <v>0.004304937552422672</v>
       </c>
       <c r="E25">
-        <v>0.002301676299963695</v>
+        <v>0.04823273670708228</v>
       </c>
       <c r="F25">
-        <v>0.9490897800424563</v>
+        <v>0.477316535216616</v>
       </c>
       <c r="G25">
-        <v>0.8921893540471331</v>
+        <v>0.3569490515952509</v>
       </c>
       <c r="H25">
-        <v>0.4490694562556854</v>
+        <v>0.4000384560281844</v>
       </c>
       <c r="I25">
-        <v>0.6939934778505688</v>
+        <v>0.3483633313797014</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.971961990495885</v>
+        <v>0.9887845913642366</v>
       </c>
       <c r="N25">
-        <v>4.89430668917845</v>
+        <v>2.034859715736161</v>
       </c>
       <c r="O25">
-        <v>2.786242559693875</v>
+        <v>1.447421839379047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_113/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_113/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0101971532915357</v>
+        <v>0.03002913532174745</v>
       </c>
       <c r="D2">
-        <v>0.003626923131477611</v>
+        <v>0.01128278417594331</v>
       </c>
       <c r="E2">
-        <v>0.05289587296702258</v>
+        <v>0.003082289652298176</v>
       </c>
       <c r="F2">
-        <v>0.4411102620360623</v>
+        <v>0.7945513135401114</v>
       </c>
       <c r="G2">
-        <v>0.3200767524363641</v>
+        <v>0.7416515081582702</v>
       </c>
       <c r="H2">
-        <v>0.3880983609024327</v>
+        <v>0.3853032268991825</v>
       </c>
       <c r="I2">
-        <v>0.321948227514099</v>
+        <v>0.5808204031730284</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8391109518968847</v>
+        <v>2.493212052225005</v>
       </c>
       <c r="N2">
-        <v>1.806390725800441</v>
+        <v>4.205164813555484</v>
       </c>
       <c r="O2">
-        <v>1.343800827141138</v>
+        <v>2.333083120126361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009034222291994354</v>
+        <v>0.02606027228931396</v>
       </c>
       <c r="D3">
-        <v>0.003166069604656485</v>
+        <v>0.009826573651089632</v>
       </c>
       <c r="E3">
-        <v>0.05639259184957734</v>
+        <v>0.004901894349799818</v>
       </c>
       <c r="F3">
-        <v>0.4172000692780244</v>
+        <v>0.692414720595437</v>
       </c>
       <c r="G3">
-        <v>0.2955380779540917</v>
+        <v>0.6420999380069361</v>
       </c>
       <c r="H3">
-        <v>0.3805128844400656</v>
+        <v>0.3435340251532608</v>
       </c>
       <c r="I3">
-        <v>0.3045092174425434</v>
+        <v>0.5060583451221916</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7373166087641039</v>
+        <v>2.169408040324385</v>
       </c>
       <c r="N3">
-        <v>1.651773543296031</v>
+        <v>3.739340383941936</v>
       </c>
       <c r="O3">
-        <v>1.275564322475958</v>
+        <v>2.034208965850524</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008321623378478193</v>
+        <v>0.02363333176565874</v>
       </c>
       <c r="D4">
-        <v>0.002882488985356702</v>
+        <v>0.008930885182053316</v>
       </c>
       <c r="E4">
-        <v>0.05870294115950392</v>
+        <v>0.006573239151596244</v>
       </c>
       <c r="F4">
-        <v>0.4028256908167691</v>
+        <v>0.6307768652703913</v>
       </c>
       <c r="G4">
-        <v>0.2806897144269414</v>
+        <v>0.5819823493349219</v>
       </c>
       <c r="H4">
-        <v>0.3761042544726649</v>
+        <v>0.3185038396157438</v>
       </c>
       <c r="I4">
-        <v>0.2940277215863034</v>
+        <v>0.4609554014750827</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6746455644434803</v>
+        <v>1.970712252779805</v>
       </c>
       <c r="N4">
-        <v>1.556971036514909</v>
+        <v>3.453781015430252</v>
       </c>
       <c r="O4">
-        <v>1.23463823052407</v>
+        <v>1.854112364924248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008031608154425385</v>
+        <v>0.02264642493439339</v>
       </c>
       <c r="D5">
-        <v>0.002766783468775458</v>
+        <v>0.008565458684039129</v>
       </c>
       <c r="E5">
-        <v>0.05968510855047571</v>
+        <v>0.00738225162438777</v>
       </c>
       <c r="F5">
-        <v>0.3970448364041914</v>
+        <v>0.6059007990882321</v>
       </c>
       <c r="G5">
-        <v>0.2746934401400267</v>
+        <v>0.5577083174283928</v>
       </c>
       <c r="H5">
-        <v>0.3743702073086581</v>
+        <v>0.3084454746668683</v>
       </c>
       <c r="I5">
-        <v>0.2898130748586638</v>
+        <v>0.4427559047422207</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6490658801042599</v>
+        <v>1.889746972305659</v>
       </c>
       <c r="N5">
-        <v>1.518376361941876</v>
+        <v>3.337512251451955</v>
       </c>
       <c r="O5">
-        <v>1.218203792951044</v>
+        <v>1.781490525135865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007983474301582305</v>
+        <v>0.02248266444902214</v>
       </c>
       <c r="D6">
-        <v>0.002747562260218217</v>
+        <v>0.008504753306038282</v>
       </c>
       <c r="E6">
-        <v>0.05985064221806446</v>
+        <v>0.007523994727226757</v>
       </c>
       <c r="F6">
-        <v>0.3960895619008653</v>
+        <v>0.601783957956556</v>
       </c>
       <c r="G6">
-        <v>0.27370104707785</v>
+        <v>0.5536903694511039</v>
       </c>
       <c r="H6">
-        <v>0.3740860429972912</v>
+        <v>0.3067834704871615</v>
       </c>
       <c r="I6">
-        <v>0.2891166511493779</v>
+        <v>0.439744187261141</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6448159850434223</v>
+        <v>1.876302336648124</v>
       </c>
       <c r="N6">
-        <v>1.511970185676631</v>
+        <v>3.318211451835452</v>
       </c>
       <c r="O6">
-        <v>1.215489531610558</v>
+        <v>1.769475655429659</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008317710599740735</v>
+        <v>0.02362001405810332</v>
       </c>
       <c r="D7">
-        <v>0.002880929109828401</v>
+        <v>0.008925958676947232</v>
       </c>
       <c r="E7">
-        <v>0.05871602281820243</v>
+        <v>0.006583646334662241</v>
       </c>
       <c r="F7">
-        <v>0.4027474175036474</v>
+        <v>0.6304404349041164</v>
       </c>
       <c r="G7">
-        <v>0.2806086261962832</v>
+        <v>0.581654109838837</v>
       </c>
       <c r="H7">
-        <v>0.3760806155301566</v>
+        <v>0.3183676325500073</v>
       </c>
       <c r="I7">
-        <v>0.2939706523049423</v>
+        <v>0.4607092536834543</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6743007504402954</v>
+        <v>1.969620339240763</v>
       </c>
       <c r="N7">
-        <v>1.556450374696055</v>
+        <v>3.452212593541105</v>
       </c>
       <c r="O7">
-        <v>1.23441560624596</v>
+        <v>1.853129962098137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.009795881040652432</v>
+        <v>0.02865834844985926</v>
       </c>
       <c r="D8">
-        <v>0.003468154548283309</v>
+        <v>0.01078098783207793</v>
       </c>
       <c r="E8">
-        <v>0.05406740150849587</v>
+        <v>0.003587579488570913</v>
       </c>
       <c r="F8">
-        <v>0.43280222718505</v>
+        <v>0.7590940389939504</v>
       </c>
       <c r="G8">
-        <v>0.3115702324801504</v>
+        <v>0.7070990352695361</v>
       </c>
       <c r="H8">
-        <v>0.3854311821854992</v>
+        <v>0.3707650200885979</v>
       </c>
       <c r="I8">
-        <v>0.315888189793526</v>
+        <v>0.554863000364783</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8040483323266301</v>
+        <v>2.381523072022176</v>
       </c>
       <c r="N8">
-        <v>1.753053829675565</v>
+        <v>4.04444273712636</v>
       </c>
       <c r="O8">
-        <v>1.320070648128478</v>
+        <v>2.229267394521514</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0127056890284436</v>
+        <v>0.03863768145186697</v>
       </c>
       <c r="D9">
-        <v>0.004614418142605103</v>
+        <v>0.01440806287362406</v>
       </c>
       <c r="E9">
-        <v>0.04626510282778673</v>
+        <v>0.002664394507943868</v>
       </c>
       <c r="F9">
-        <v>0.4941878322768503</v>
+        <v>1.021282242811793</v>
       </c>
       <c r="G9">
-        <v>0.3740400185152168</v>
+        <v>0.962495867641195</v>
       </c>
       <c r="H9">
-        <v>0.4057474478859717</v>
+        <v>0.4790529712218898</v>
       </c>
       <c r="I9">
-        <v>0.3606748108487778</v>
+        <v>0.7468829753920048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.05707856001996</v>
+        <v>3.191538299308476</v>
       </c>
       <c r="N9">
-        <v>2.139465154819618</v>
+        <v>5.210345299389701</v>
       </c>
       <c r="O9">
-        <v>1.495802234160237</v>
+        <v>2.998290655195319</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01485004507391352</v>
+        <v>0.04606038845449945</v>
       </c>
       <c r="D10">
-        <v>0.005452888770324904</v>
+        <v>0.01706955136666366</v>
       </c>
       <c r="E10">
-        <v>0.04135746289745112</v>
+        <v>0.005847265272021396</v>
       </c>
       <c r="F10">
-        <v>0.540807067454125</v>
+        <v>1.222013268924968</v>
       </c>
       <c r="G10">
-        <v>0.4210391953494366</v>
+        <v>1.157982304844552</v>
       </c>
       <c r="H10">
-        <v>0.4218899593114145</v>
+        <v>0.5629615477785705</v>
       </c>
       <c r="I10">
-        <v>0.3947013060638369</v>
+        <v>0.8940075295926846</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.242056010451932</v>
+        <v>3.790124030967448</v>
       </c>
       <c r="N10">
-        <v>2.423678289929512</v>
+        <v>6.071199106218103</v>
       </c>
       <c r="O10">
-        <v>1.629734618383566</v>
+        <v>3.58897214480811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01582694034210164</v>
+        <v>0.04946419195207596</v>
       </c>
       <c r="D11">
-        <v>0.005833434950787364</v>
+        <v>0.0182804422225793</v>
       </c>
       <c r="E11">
-        <v>0.03930907181283283</v>
+        <v>0.008342762581492913</v>
       </c>
       <c r="F11">
-        <v>0.5623512875463348</v>
+        <v>1.315592128052529</v>
       </c>
       <c r="G11">
-        <v>0.4426671690091553</v>
+        <v>1.249132655921841</v>
       </c>
       <c r="H11">
-        <v>0.4294997986830253</v>
+        <v>0.6023152042994298</v>
       </c>
       <c r="I11">
-        <v>0.4104290466843992</v>
+        <v>0.9626270512967778</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.325993434783641</v>
+        <v>4.063715317003854</v>
       </c>
       <c r="N11">
-        <v>2.553000083283166</v>
+        <v>6.464131936692866</v>
       </c>
       <c r="O11">
-        <v>1.691731319612359</v>
+        <v>3.864852389287023</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01619706012970568</v>
+        <v>0.05075767170268364</v>
       </c>
       <c r="D12">
-        <v>0.005977401857197862</v>
+        <v>0.01873907297092003</v>
       </c>
       <c r="E12">
-        <v>0.03856030642766139</v>
+        <v>0.009457948646528713</v>
       </c>
       <c r="F12">
-        <v>0.570558341765377</v>
+        <v>1.351399303631723</v>
       </c>
       <c r="G12">
-        <v>0.4508932444487925</v>
+        <v>1.284015330536448</v>
       </c>
       <c r="H12">
-        <v>0.4324198992350716</v>
+        <v>0.6174091232254852</v>
       </c>
       <c r="I12">
-        <v>0.4164208175271114</v>
+        <v>0.9888888664309547</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.357746718811839</v>
+        <v>4.167551107431862</v>
       </c>
       <c r="N12">
-        <v>2.601971329837852</v>
+        <v>6.613149674115562</v>
       </c>
       <c r="O12">
-        <v>1.715363059083643</v>
+        <v>3.970497392972447</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01611733993573949</v>
+        <v>0.0504788856165348</v>
       </c>
       <c r="D13">
-        <v>0.005946402311831633</v>
+        <v>0.01864029331183303</v>
       </c>
       <c r="E13">
-        <v>0.0387203623341601</v>
+        <v>0.009209870880526161</v>
       </c>
       <c r="F13">
-        <v>0.568788634254588</v>
+        <v>1.343670331022906</v>
       </c>
       <c r="G13">
-        <v>0.4491200031250457</v>
+        <v>1.276485660782242</v>
       </c>
       <c r="H13">
-        <v>0.4317892931329652</v>
+        <v>0.6141494977232185</v>
       </c>
       <c r="I13">
-        <v>0.4151287770704499</v>
+        <v>0.9832200207652022</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.350909533074955</v>
+        <v>4.145177058492351</v>
       </c>
       <c r="N13">
-        <v>2.591424574538905</v>
+        <v>6.581045594412956</v>
       </c>
       <c r="O13">
-        <v>1.710266633836</v>
+        <v>3.947690170161138</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01585738657174574</v>
+        <v>0.04957051270758939</v>
       </c>
       <c r="D14">
-        <v>0.005845282019482312</v>
+        <v>0.01831817176441675</v>
       </c>
       <c r="E14">
-        <v>0.03924692847323863</v>
+        <v>0.008430979455092746</v>
       </c>
       <c r="F14">
-        <v>0.5630255086991838</v>
+        <v>1.318530300075452</v>
       </c>
       <c r="G14">
-        <v>0.4433432088022471</v>
+        <v>1.251994858619611</v>
       </c>
       <c r="H14">
-        <v>0.4297392665960444</v>
+        <v>0.6035530219642737</v>
       </c>
       <c r="I14">
-        <v>0.4109212701731906</v>
+        <v>0.9647818690848737</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.3286064482905</v>
+        <v>4.072252998548009</v>
       </c>
       <c r="N14">
-        <v>2.557029006038022</v>
+        <v>6.476387059844512</v>
       </c>
       <c r="O14">
-        <v>1.693672405963525</v>
+        <v>3.873519450305253</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01569818208430718</v>
+        <v>0.04901471779069055</v>
       </c>
       <c r="D15">
-        <v>0.005783324653233279</v>
+        <v>0.01812087728982092</v>
       </c>
       <c r="E15">
-        <v>0.03957298376665097</v>
+        <v>0.00797666500616856</v>
       </c>
       <c r="F15">
-        <v>0.5595017817120151</v>
+        <v>1.30318101317269</v>
       </c>
       <c r="G15">
-        <v>0.4398094595427438</v>
+        <v>1.237042648199804</v>
       </c>
       <c r="H15">
-        <v>0.428488572265735</v>
+        <v>0.5970879864538574</v>
       </c>
       <c r="I15">
-        <v>0.4083487477630712</v>
+        <v>0.9535251080952634</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.314940943742471</v>
+        <v>4.027616694210181</v>
       </c>
       <c r="N15">
-        <v>2.535960574832643</v>
+        <v>6.412310678004985</v>
       </c>
       <c r="O15">
-        <v>1.683528170163413</v>
+        <v>3.828245246469464</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01478623007326263</v>
+        <v>0.04583854115082886</v>
       </c>
       <c r="D16">
-        <v>0.00542800053651149</v>
+        <v>0.01699042580620969</v>
       </c>
       <c r="E16">
-        <v>0.04149507256093976</v>
+        <v>0.00570688544194109</v>
       </c>
       <c r="F16">
-        <v>0.5394059052049442</v>
+        <v>1.215947025302256</v>
       </c>
       <c r="G16">
-        <v>0.4196307769062457</v>
+        <v>1.152074014851109</v>
       </c>
       <c r="H16">
-        <v>0.4213980096074863</v>
+        <v>0.5604152900572501</v>
       </c>
       <c r="I16">
-        <v>0.393678489137784</v>
+        <v>0.8895599502523766</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.236566124437871</v>
+        <v>3.772274087168796</v>
       </c>
       <c r="N16">
-        <v>2.415227044953269</v>
+        <v>6.045549359894949</v>
       </c>
       <c r="O16">
-        <v>1.625704612226286</v>
+        <v>3.571099085692197</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01422713074018844</v>
+        <v>0.04389745070772477</v>
       </c>
       <c r="D17">
-        <v>0.005209787647054043</v>
+        <v>0.01629701896881031</v>
       </c>
       <c r="E17">
-        <v>0.04272168129706655</v>
+        <v>0.004596062059325945</v>
       </c>
       <c r="F17">
-        <v>0.5271642228601365</v>
+        <v>1.163042916829284</v>
       </c>
       <c r="G17">
-        <v>0.4073155615326414</v>
+        <v>1.100549537509551</v>
       </c>
       <c r="H17">
-        <v>0.4171165097942975</v>
+        <v>0.5382354765862942</v>
       </c>
       <c r="I17">
-        <v>0.3847426730520738</v>
+        <v>0.8507758653400543</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.188430678893397</v>
+        <v>3.615992319674717</v>
       </c>
       <c r="N17">
-        <v>2.34116573104825</v>
+        <v>5.820914502631013</v>
       </c>
       <c r="O17">
-        <v>1.590506575440088</v>
+        <v>3.415284285207349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01390568574429096</v>
+        <v>0.0427835047408891</v>
       </c>
       <c r="D18">
-        <v>0.005084195372841549</v>
+        <v>0.01589820069657222</v>
       </c>
       <c r="E18">
-        <v>0.04344449791859528</v>
+        <v>0.004054468183260163</v>
       </c>
       <c r="F18">
-        <v>0.5201548245143215</v>
+        <v>1.132824171628187</v>
       </c>
       <c r="G18">
-        <v>0.4002554770368079</v>
+        <v>1.071120214106585</v>
       </c>
       <c r="H18">
-        <v>0.4146789858317277</v>
+        <v>0.5255882183333966</v>
       </c>
       <c r="I18">
-        <v>0.3796264439733363</v>
+        <v>0.8286253382958648</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.160724810156836</v>
+        <v>3.526221651337281</v>
       </c>
       <c r="N18">
-        <v>2.298570892747136</v>
+        <v>5.691833191167007</v>
       </c>
       <c r="O18">
-        <v>1.57036226455898</v>
+        <v>3.326329917177929</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01379687342704727</v>
+        <v>0.04240675593010934</v>
       </c>
       <c r="D19">
-        <v>0.005041658250352299</v>
+        <v>0.01576316763260976</v>
       </c>
       <c r="E19">
-        <v>0.04369218977357159</v>
+        <v>0.00388724506724536</v>
       </c>
       <c r="F19">
-        <v>0.5177869975149321</v>
+        <v>1.122627429627073</v>
       </c>
       <c r="G19">
-        <v>0.3978690437335501</v>
+        <v>1.061190015653807</v>
       </c>
       <c r="H19">
-        <v>0.4138579870474928</v>
+        <v>0.521324341879307</v>
       </c>
       <c r="I19">
-        <v>0.3778981916374136</v>
+        <v>0.8211515411982333</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.151340763179277</v>
+        <v>3.495845844190299</v>
       </c>
       <c r="N19">
-        <v>2.284149717821265</v>
+        <v>5.648148634458039</v>
       </c>
       <c r="O19">
-        <v>1.563559005219446</v>
+        <v>3.296321751615835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01428663402874264</v>
+        <v>0.04410381812299846</v>
       </c>
       <c r="D20">
-        <v>0.005233025350371179</v>
+        <v>0.01637083170443887</v>
       </c>
       <c r="E20">
-        <v>0.04258931265320731</v>
+        <v>0.004704103257699543</v>
       </c>
       <c r="F20">
-        <v>0.5284640886451513</v>
+        <v>1.168652569658931</v>
       </c>
       <c r="G20">
-        <v>0.4086241227267777</v>
+        <v>1.106012742501264</v>
       </c>
       <c r="H20">
-        <v>0.4175696862448177</v>
+        <v>0.5405850236079743</v>
       </c>
       <c r="I20">
-        <v>0.3856914808457432</v>
+        <v>0.8548880073684515</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.193556824602581</v>
+        <v>3.632616195320509</v>
       </c>
       <c r="N20">
-        <v>2.349049379965891</v>
+        <v>5.844814345138673</v>
       </c>
       <c r="O20">
-        <v>1.594243040128219</v>
+        <v>3.431801091409795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01593373610271698</v>
+        <v>0.04983719560219413</v>
       </c>
       <c r="D21">
-        <v>0.005874987327640468</v>
+        <v>0.01841278355981402</v>
       </c>
       <c r="E21">
-        <v>0.03909152922949533</v>
+        <v>0.008654973841017544</v>
       </c>
       <c r="F21">
-        <v>0.564716953745048</v>
+        <v>1.325904091291235</v>
       </c>
       <c r="G21">
-        <v>0.4450390122981958</v>
+        <v>1.259178077086005</v>
       </c>
       <c r="H21">
-        <v>0.4303403656464582</v>
+        <v>0.606660085380895</v>
       </c>
       <c r="I21">
-        <v>0.4121561376818477</v>
+        <v>0.9701897968185449</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.335158287857965</v>
+        <v>4.09366584679951</v>
       </c>
       <c r="N21">
-        <v>2.567131858293749</v>
+        <v>6.507121496372633</v>
       </c>
       <c r="O21">
-        <v>1.698542319768933</v>
+        <v>3.895272091387142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01701131827241653</v>
+        <v>0.0536110371988272</v>
       </c>
       <c r="D22">
-        <v>0.006293738854363795</v>
+        <v>0.01974789646372344</v>
       </c>
       <c r="E22">
-        <v>0.03696261744795981</v>
+        <v>0.01223969815371806</v>
       </c>
       <c r="F22">
-        <v>0.5886944366025659</v>
+        <v>1.430862760004828</v>
       </c>
       <c r="G22">
-        <v>0.4690484482617876</v>
+        <v>1.361438464973872</v>
       </c>
       <c r="H22">
-        <v>0.438910724612839</v>
+        <v>0.6509717506544916</v>
       </c>
       <c r="I22">
-        <v>0.4296623572907095</v>
+        <v>1.047179165060399</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.427515687671374</v>
+        <v>4.396370498285208</v>
       </c>
       <c r="N22">
-        <v>2.709658591458378</v>
+        <v>6.9412922082347</v>
       </c>
       <c r="O22">
-        <v>1.767611486227111</v>
+        <v>4.205102640137056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01643609553017455</v>
+        <v>0.05159420039015572</v>
       </c>
       <c r="D23">
-        <v>0.006070320946072627</v>
+        <v>0.01903524322877459</v>
       </c>
       <c r="E23">
-        <v>0.03808433794246957</v>
+        <v>0.01022772600867494</v>
       </c>
       <c r="F23">
-        <v>0.5758711115273059</v>
+        <v>1.374628385805423</v>
       </c>
       <c r="G23">
-        <v>0.4562147964454084</v>
+        <v>1.30664628865199</v>
       </c>
       <c r="H23">
-        <v>0.4343160376557194</v>
+        <v>0.6272110133006379</v>
       </c>
       <c r="I23">
-        <v>0.4202996666003571</v>
+        <v>1.005927112049037</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.378240549150718</v>
+        <v>4.234667964208626</v>
       </c>
       <c r="N23">
-        <v>2.63359117803833</v>
+        <v>6.709435421667422</v>
       </c>
       <c r="O23">
-        <v>1.730664952567622</v>
+        <v>4.039055876020768</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01425973262623614</v>
+        <v>0.04401051319177185</v>
       </c>
       <c r="D24">
-        <v>0.005222520015312426</v>
+        <v>0.01633746149940762</v>
       </c>
       <c r="E24">
-        <v>0.04264910165441194</v>
+        <v>0.004654957048177089</v>
       </c>
       <c r="F24">
-        <v>0.5278763305445722</v>
+        <v>1.166115836828041</v>
       </c>
       <c r="G24">
-        <v>0.4080324596424418</v>
+        <v>1.103542230501077</v>
       </c>
       <c r="H24">
-        <v>0.4173647305186563</v>
+        <v>0.5395224703971451</v>
       </c>
       <c r="I24">
-        <v>0.3852624591631866</v>
+        <v>0.853028452729788</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.191239394168647</v>
+        <v>3.625100302291571</v>
       </c>
       <c r="N24">
-        <v>2.345485231772273</v>
+        <v>5.834009028555613</v>
       </c>
       <c r="O24">
-        <v>1.592553499473468</v>
+        <v>3.42433190528044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0119173448579204</v>
+        <v>0.03592436825230294</v>
       </c>
       <c r="D25">
-        <v>0.004304937552422672</v>
+        <v>0.01342767796365152</v>
       </c>
       <c r="E25">
-        <v>0.04823273670708228</v>
+        <v>0.002301676299951705</v>
       </c>
       <c r="F25">
-        <v>0.477316535216616</v>
+        <v>0.949089780042442</v>
       </c>
       <c r="G25">
-        <v>0.3569490515952509</v>
+        <v>0.8921893540471757</v>
       </c>
       <c r="H25">
-        <v>0.4000384560281844</v>
+        <v>0.4490694562556854</v>
       </c>
       <c r="I25">
-        <v>0.3483633313797014</v>
+        <v>0.6939934778505616</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9887845913642366</v>
+        <v>2.971961990495885</v>
       </c>
       <c r="N25">
-        <v>2.034859715736161</v>
+        <v>4.89430668917845</v>
       </c>
       <c r="O25">
-        <v>1.447421839379047</v>
+        <v>2.786242559693875</v>
       </c>
     </row>
   </sheetData>
